--- a/biology/Zoologie/Dibamidae/Dibamidae.xlsx
+++ b/biology/Zoologie/Dibamidae/Dibamidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dibamidae ou Dibamidés, unique représentant de l'infra-ordre des Dibamia, sont une famille de sauriens. Elle a été créée par George Albert Boulenger en 1884. Cette famille compte deux genres et vingt-cinq espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent dans les forêts tropicales humides et sèches en Asie du Sud-Est, dans le sud de la Chine en Asie de l'Est et en Nouvelle-Guinée. Une seule espèce, Anelytropis papillosus, vit dans les broussailles et les forêts sèches des hauts plateaux au Mexique.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des lézards serpentiformes avec des petites écailles brillantes étroitement imbriquées. Ils sont capables de se séparer de leur queue en cas de menace contrairement aux serpent aveugles Scolecophidia auxquels ils ressemblent un peu.  
-Ces squamates mènent une vie de fouisseur et sont rarement observés en surface. Ils sont ovipares et donnent un seul œuf par ponte. Ils se nourrissent de larves d'insectes, d'insectes et d’arthropodes et peut-être aussi de vers de terre[1]. Les femelles ne possèdent pas de pattes et les mâles présentent des vestiges atrophiés. Ils peuvent atteindre jusqu'à 25 cm. 
+Ces squamates mènent une vie de fouisseur et sont rarement observés en surface. Ils sont ovipares et donnent un seul œuf par ponte. Ils se nourrissent de larves d'insectes, d'insectes et d’arthropodes et peut-être aussi de vers de terre. Les femelles ne possèdent pas de pattes et les mâles présentent des vestiges atrophiés. Ils peuvent atteindre jusqu'à 25 cm. 
 Certaines espèces ont la particularité d'être aveugle, chez le genre Anelytropsis les yeux étant recouverts d'écailles non transparentes.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 sept. 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 sept. 2012) :
 Anelytropsis Cope, 1885
 Dibamus Duméril et Bibron, 1839</t>
         </is>
@@ -609,8 +627,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Place au sein des squamates
-Phylogénie des familles actuelles de squamates (en dehors du clade Toxicofera) d'après Wiens et al., 2012[3] et Zeng et Wiens, 2016[4] :
+          <t>Place au sein des squamates</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des familles actuelles de squamates (en dehors du clade Toxicofera) d'après Wiens et al., 2012 et Zeng et Wiens, 2016 :
 </t>
         </is>
       </c>
@@ -639,7 +662,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boulenger, 1884 : Synopsis of the families of existing Lacertilia. Annals and magazine of natural history, ser. 5, vol. 14, p. 117-122 (texte intégral).
 Gasc, 1968 : Contribution à l'ostéologie et à la myologie de Dibamus novaeguineae Gray (Sauria, Reptilia). Discussion systématique. Annales des sciences naturelles. Zoologie et biologie animale, vol. 10, p. 127-150.</t>
